--- a/Nhóm 1_WS2.xlsx
+++ b/Nhóm 1_WS2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUI_QUANG_HIEU\Downloads\SOF303_ASM1[1]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_FPoly\5. SP22\Block1\KiemThuCoBan_SOF303\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8729655E-35BF-4C49-8ECA-FD3412A14E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A747A586-633B-4741-B583-6765F9D407FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{72AF7B67-797D-4135-8101-020F8133AA72}"/>
   </bookViews>
@@ -3385,339 +3385,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3754,6 +3421,339 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="34" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="14" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="49" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="51" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="2" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="17" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="11" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="7" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="47" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="46" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="49" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="42" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -3784,6 +3784,117 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -3792,14 +3903,12 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -3809,26 +3918,9 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3880,6 +3972,45 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -4141,156 +4272,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -4312,6 +4293,25 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -4365,7 +4365,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[WS3_template_Level &amp; methor test.xlsx]Template_WS3!PivotTable1</c:name>
+    <c:name>[Nhóm 1_WS2.xlsx]Template_WS3!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5112,7 +5112,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[WS3_template_Level &amp; methor test.xlsx]Template_WS3!PivotTable2</c:name>
+    <c:name>[Nhóm 1_WS2.xlsx]Template_WS3!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -11359,18 +11359,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64CD4E45-4965-47EE-9000-826FFA25C01D}" name="question" displayName="question" ref="A6:I300" totalsRowShown="0" headerRowDxfId="19" dataDxfId="1" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64CD4E45-4965-47EE-9000-826FFA25C01D}" name="question" displayName="question" ref="A6:I300" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A6:I300" xr:uid="{64CD4E45-4965-47EE-9000-826FFA25C01D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AE6D46CF-6F68-4944-BCB7-51ED6E7A76F6}" name="Q No" dataDxfId="9" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="2" xr3:uid="{1D00D74C-91D6-4F39-8397-027BA4C61ED1}" name="Q ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DDC74849-C649-4197-B820-43A934754F48}" name="Article" dataDxfId="7" dataCellStyle="Normal_Sheet1 1"/>
-    <tableColumn id="4" xr3:uid="{3F5D8C66-5FD6-4EBB-ACEC-BE4EB7CEC172}" name="Article detail 1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E9912162-DB16-4EC2-8460-84A5E852D377}" name="Question" dataDxfId="0" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="6" xr3:uid="{0F47D052-AB4E-484E-8E4B-E96E85231151}" name="Level test" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{0A3A4A30-61EE-497F-9CF1-2D5FA545CF36}" name="Methor" dataDxfId="4" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="8" xr3:uid="{B5F41842-602F-4C71-BBEF-8A55875620B5}" name="Methor Detail" dataDxfId="3" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="9" xr3:uid="{DBE8DDA3-C014-47E8-8222-5DE276F2E0C4}" name="Person in charge (PIC)" dataDxfId="2" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="1" xr3:uid="{AE6D46CF-6F68-4944-BCB7-51ED6E7A76F6}" name="Q No" dataDxfId="14" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="2" xr3:uid="{1D00D74C-91D6-4F39-8397-027BA4C61ED1}" name="Q ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DDC74849-C649-4197-B820-43A934754F48}" name="Article" dataDxfId="12" dataCellStyle="Normal_Sheet1 1"/>
+    <tableColumn id="4" xr3:uid="{3F5D8C66-5FD6-4EBB-ACEC-BE4EB7CEC172}" name="Article detail 1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E9912162-DB16-4EC2-8460-84A5E852D377}" name="Question" dataDxfId="10" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="6" xr3:uid="{0F47D052-AB4E-484E-8E4B-E96E85231151}" name="Level test" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{0A3A4A30-61EE-497F-9CF1-2D5FA545CF36}" name="Methor" dataDxfId="8" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="8" xr3:uid="{B5F41842-602F-4C71-BBEF-8A55875620B5}" name="Methor Detail" dataDxfId="7" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="9" xr3:uid="{DBE8DDA3-C014-47E8-8222-5DE276F2E0C4}" name="Person in charge (PIC)" dataDxfId="6" dataCellStyle="Normal_Sheet1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11380,18 +11380,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7D2367F-78F1-4E97-BAE0-13BD001D28DB}" name="Table3" displayName="Table3" ref="K6:K10" totalsRowShown="0">
   <autoFilter ref="K6:K10" xr:uid="{D7D2367F-78F1-4E97-BAE0-13BD001D28DB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{99833DF9-B395-430F-972A-F69290EBE2DA}" name="Level test" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{99833DF9-B395-430F-972A-F69290EBE2DA}" name="Level test" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B98EE3B-492C-4AAA-B6B0-0467794A0BCA}" name="Table5" displayName="Table5" ref="M6:N8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3B98EE3B-492C-4AAA-B6B0-0467794A0BCA}" name="Table5" displayName="Table5" ref="M6:N8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="M6:N8" xr:uid="{3B98EE3B-492C-4AAA-B6B0-0467794A0BCA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E381C544-135A-4010-9D3C-623090F96B84}" name="Methor" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{5035D0B7-EFF0-48EA-A888-7CF0BB1916E5}" name="name" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{E381C544-135A-4010-9D3C-623090F96B84}" name="Methor" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5035D0B7-EFF0-48EA-A888-7CF0BB1916E5}" name="name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12284,21 +12284,21 @@
     <row r="2" spans="1:8" s="45" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="166"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="35.25" customHeight="1">
       <c r="B3" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="47" t="s">
         <v>36</v>
       </c>
@@ -12312,8 +12312,8 @@
       <c r="B4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="169"/>
-      <c r="D4" s="170"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="47" t="s">
         <v>39</v>
       </c>
@@ -12327,8 +12327,8 @@
       <c r="B5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="47" t="s">
         <v>39</v>
       </c>
@@ -12342,8 +12342,8 @@
       <c r="B6" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="47" t="s">
         <v>39</v>
       </c>
@@ -12354,24 +12354,24 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" s="54" customFormat="1" ht="10.5" customHeight="1">
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="173"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="164"/>
     </row>
     <row r="8" spans="1:8" s="54" customFormat="1">
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="167"/>
     </row>
     <row r="9" spans="1:8" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="B9" s="55" t="s">
@@ -12386,10 +12386,10 @@
       <c r="E9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="177"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="56" t="s">
         <v>38</v>
       </c>
@@ -12401,8 +12401,8 @@
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
       <c r="E10" s="59"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="179"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
       <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:8" s="54" customFormat="1" ht="14.25" customHeight="1">
@@ -12410,8 +12410,8 @@
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="179"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
       <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" s="54" customFormat="1" ht="14.25" customHeight="1">
@@ -12419,8 +12419,8 @@
       <c r="C12" s="58"/>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="179"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
       <c r="H12" s="60"/>
     </row>
     <row r="13" spans="1:8" s="54" customFormat="1" ht="14.25" customHeight="1">
@@ -12428,88 +12428,103 @@
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
       <c r="E13" s="59"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="179"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
       <c r="H13" s="60"/>
     </row>
     <row r="14" spans="1:8" s="63" customFormat="1" ht="18" customHeight="1">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="163"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="154"/>
     </row>
     <row r="15" spans="1:8" s="63" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155" t="s">
+      <c r="C15" s="172"/>
+      <c r="D15" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="156"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="155" t="s">
+      <c r="E15" s="174"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="157"/>
+      <c r="H15" s="175"/>
     </row>
     <row r="16" spans="1:8" s="63" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="151" t="s">
+      <c r="C16" s="177"/>
+      <c r="D16" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="158"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="151" t="s">
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="178" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="160"/>
+      <c r="H16" s="181"/>
     </row>
     <row r="17" spans="2:8" s="63" customFormat="1" ht="27" customHeight="1">
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148" t="s">
+      <c r="C17" s="177"/>
+      <c r="D17" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="152"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="192"/>
     </row>
     <row r="18" spans="2:8" s="63" customFormat="1" ht="27" customHeight="1">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148" t="s">
+      <c r="C18" s="177"/>
+      <c r="D18" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="152"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="192"/>
     </row>
     <row r="19" spans="2:8" s="63" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:D3"/>
@@ -12522,21 +12537,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B18:C18" location="TestStrategy!A1" display="Test strategy" xr:uid="{5A744A47-D37C-4CDF-8CB5-4C87402C8541}"/>
@@ -13209,22 +13209,22 @@
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
       <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="67"/>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="183"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -13327,10 +13327,10 @@
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="70"/>
-      <c r="B11" s="183" t="s">
+      <c r="B11" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="195"/>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
       <c r="F11" s="82"/>
@@ -13344,12 +13344,12 @@
       <c r="C12" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="196" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="186"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
       <c r="A13" s="70"/>
@@ -13359,12 +13359,12 @@
       <c r="C13" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="187" t="s">
+      <c r="D13" s="199" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="70"/>
@@ -13374,12 +13374,12 @@
       <c r="C14" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="181" t="s">
+      <c r="D14" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="70"/>
@@ -13389,12 +13389,12 @@
       <c r="C15" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="D15" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="70"/>
@@ -13405,12 +13405,12 @@
       <c r="C16" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="181" t="s">
+      <c r="D16" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="181"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="70"/>
@@ -13421,12 +13421,12 @@
       <c r="C17" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="181" t="s">
+      <c r="D17" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
       <c r="A18" s="70"/>
@@ -13437,12 +13437,12 @@
       <c r="C18" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="181"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="70"/>
@@ -13453,12 +13453,12 @@
       <c r="C19" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="70"/>
@@ -13469,12 +13469,12 @@
       <c r="C20" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="181" t="s">
+      <c r="D20" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="181"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="70"/>
@@ -13485,12 +13485,12 @@
       <c r="C21" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="70"/>
@@ -13501,12 +13501,12 @@
       <c r="C22" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="70"/>
@@ -13517,12 +13517,12 @@
       <c r="C23" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="181"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="70"/>
@@ -13533,12 +13533,12 @@
       <c r="C24" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="181"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
       <c r="A25" s="70"/>
@@ -13549,12 +13549,12 @@
       <c r="C25" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="193" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
       <c r="A26" s="70"/>
@@ -13565,12 +13565,12 @@
       <c r="C26" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="193" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
       <c r="A27" s="70"/>
@@ -13581,12 +13581,12 @@
       <c r="C27" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="181" t="s">
+      <c r="D27" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
+      <c r="E27" s="193"/>
+      <c r="F27" s="193"/>
+      <c r="G27" s="193"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
       <c r="A28" s="70"/>
@@ -13597,12 +13597,12 @@
       <c r="C28" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
+      <c r="E28" s="193"/>
+      <c r="F28" s="193"/>
+      <c r="G28" s="193"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="70"/>
@@ -13613,12 +13613,12 @@
       <c r="C29" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="193"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
       <c r="A30" s="70"/>
@@ -13629,48 +13629,49 @@
       <c r="C30" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
       <c r="A31" s="70"/>
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="70"/>
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
     </row>
     <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="70"/>
       <c r="B33" s="89"/>
       <c r="C33" s="90"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="D16:G16"/>
@@ -13683,13 +13684,12 @@
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="General_Introduction!A1" display="Back" xr:uid="{ECA9351A-8076-4B73-986F-783272CFCFE0}"/>
@@ -14291,169 +14291,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B1" s="239" t="s">
+      <c r="B1" s="201" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="2:8" ht="13.5" customHeight="1">
       <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="203" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="236"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="200" t="s">
+      <c r="D3" s="207"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="209" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="241"/>
+      <c r="G3" s="210"/>
       <c r="H3" s="94" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B4" s="234"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="211" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243" t="s">
+      <c r="E4" s="211"/>
+      <c r="F4" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="243"/>
+      <c r="G4" s="212"/>
       <c r="H4" s="97"/>
     </row>
     <row r="5" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B5" s="234"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="211" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="242"/>
-      <c r="F5" s="244" t="s">
+      <c r="E5" s="211"/>
+      <c r="F5" s="213" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="244" t="s">
+      <c r="G5" s="213" t="s">
         <v>106</v>
       </c>
       <c r="H5" s="97"/>
     </row>
     <row r="6" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B6" s="234"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="242" t="s">
+      <c r="D6" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="242"/>
-      <c r="F6" s="244" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="244" t="s">
+      <c r="G6" s="213" t="s">
         <v>107</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B7" s="234"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="242" t="s">
+      <c r="D7" s="211" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="242"/>
-      <c r="F7" s="244" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="213" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="244" t="s">
+      <c r="G7" s="213" t="s">
         <v>108</v>
       </c>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B8" s="234"/>
-      <c r="C8" s="228" t="s">
+      <c r="B8" s="204"/>
+      <c r="C8" s="214" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="230" t="s">
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
     </row>
     <row r="9" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B9" s="234"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="98">
         <v>1</v>
       </c>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
     </row>
     <row r="10" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B10" s="234"/>
-      <c r="C10" s="228" t="s">
+      <c r="B10" s="204"/>
+      <c r="C10" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="230" t="s">
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216" t="s">
         <v>111</v>
       </c>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
     </row>
     <row r="11" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B11" s="235"/>
+      <c r="B11" s="205"/>
       <c r="C11" s="99">
         <v>1</v>
       </c>
-      <c r="D11" s="231"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
     </row>
     <row r="12" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B12" s="233" t="s">
+      <c r="B12" s="203" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="198" t="s">
+      <c r="C12" s="206" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="236"/>
-      <c r="E12" s="237"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="208"/>
       <c r="F12" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="200" t="s">
+      <c r="G12" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="238"/>
+      <c r="H12" s="219"/>
     </row>
     <row r="13" spans="2:8" s="102" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B13" s="234"/>
+      <c r="B13" s="204"/>
       <c r="C13" s="96" t="s">
         <v>102</v>
       </c>
@@ -14472,14 +14472,14 @@
       <c r="H13" s="221"/>
     </row>
     <row r="14" spans="2:8" s="102" customFormat="1" ht="31.5" customHeight="1">
-      <c r="B14" s="234"/>
+      <c r="B14" s="204"/>
       <c r="C14" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="216" t="s">
+      <c r="D14" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="222" t="s">
+      <c r="E14" s="223" t="s">
         <v>120</v>
       </c>
       <c r="F14" s="103" t="s">
@@ -14491,215 +14491,215 @@
       <c r="H14" s="221"/>
     </row>
     <row r="15" spans="2:8" s="102" customFormat="1" ht="62.25" customHeight="1">
-      <c r="B15" s="234"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="216" t="s">
+      <c r="D15" s="222" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="222" t="s">
+      <c r="E15" s="223" t="s">
         <v>121</v>
       </c>
       <c r="F15" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="216" t="s">
+      <c r="G15" s="222" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="222"/>
+      <c r="H15" s="223"/>
     </row>
     <row r="16" spans="2:8" s="102" customFormat="1" ht="15.75">
-      <c r="B16" s="234"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="216" t="s">
+      <c r="D16" s="222" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="223" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="216"/>
-      <c r="H16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="223"/>
     </row>
     <row r="17" spans="2:8" s="102" customFormat="1" ht="15.75">
-      <c r="B17" s="235"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="96"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="225"/>
       <c r="F17" s="103"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="223"/>
     </row>
     <row r="18" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="198" t="s">
+      <c r="C18" s="206" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="240"/>
+      <c r="E18" s="209" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="202"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="241"/>
+      <c r="H18" s="242"/>
     </row>
     <row r="19" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B19" s="196"/>
-      <c r="C19" s="203" t="s">
+      <c r="B19" s="238"/>
+      <c r="C19" s="243" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="206"/>
-      <c r="H19" s="207"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="247"/>
     </row>
     <row r="20" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B20" s="196"/>
-      <c r="C20" s="208" t="s">
+      <c r="B20" s="238"/>
+      <c r="C20" s="248" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="252"/>
     </row>
     <row r="21" spans="2:8" s="95" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B21" s="196"/>
-      <c r="C21" s="216" t="s">
+      <c r="B21" s="238"/>
+      <c r="C21" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="217"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="252"/>
     </row>
     <row r="22" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B22" s="197"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="225"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="227"/>
+      <c r="B22" s="239"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="228"/>
     </row>
     <row r="23" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="229" t="s">
         <v>132</v>
       </c>
       <c r="C23" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188" t="s">
+      <c r="E23" s="229"/>
+      <c r="F23" s="229" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="188"/>
+      <c r="G23" s="229"/>
       <c r="H23" s="104" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B24" s="189"/>
+      <c r="B24" s="230"/>
       <c r="C24" s="105">
         <v>1</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="233"/>
+      <c r="G24" s="233"/>
       <c r="H24" s="106"/>
     </row>
     <row r="25" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B25" s="189"/>
+      <c r="B25" s="230"/>
       <c r="C25" s="107">
         <v>2</v>
       </c>
-      <c r="D25" s="193"/>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
       <c r="H25" s="108"/>
     </row>
     <row r="26" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B26" s="189"/>
+      <c r="B26" s="230"/>
       <c r="C26" s="109"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="235"/>
       <c r="H26" s="110"/>
     </row>
     <row r="27" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B27" s="190"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="111"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="212"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="236"/>
       <c r="H27" s="112"/>
     </row>
     <row r="28" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="229" t="s">
         <v>135</v>
       </c>
       <c r="C28" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="191" t="s">
+      <c r="D28" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
       <c r="H28" s="102"/>
     </row>
     <row r="29" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B29" s="189"/>
+      <c r="B29" s="230"/>
       <c r="C29" s="114"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
       <c r="H29" s="102"/>
     </row>
     <row r="30" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B30" s="189"/>
+      <c r="B30" s="230"/>
       <c r="C30" s="115"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="234"/>
+      <c r="G30" s="234"/>
       <c r="H30" s="102"/>
     </row>
     <row r="31" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B31" s="189"/>
+      <c r="B31" s="230"/>
       <c r="C31" s="115"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="234"/>
       <c r="H31" s="102"/>
     </row>
     <row r="32" spans="2:8" s="95" customFormat="1" ht="15.75">
-      <c r="B32" s="190"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="111"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="257"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="257"/>
       <c r="H32" s="102"/>
     </row>
     <row r="33" spans="3:8" s="95" customFormat="1" ht="15.75">
@@ -14784,6 +14784,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:B11"/>
     <mergeCell ref="C3:E3"/>
@@ -14800,51 +14845,6 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.19" top="0.37" bottom="0.35138888888888897" header="0.24" footer="0.17013888888888901"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
@@ -14859,8 +14859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9858B1DA-6D4E-457C-AE99-264839B7F998}">
   <dimension ref="A1:AD300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J242" sqref="J242"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15544,11 +15544,11 @@
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="245"/>
-      <c r="E3" s="246"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="259"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:30" ht="26.25" thickBot="1">
@@ -15556,12 +15556,12 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="247">
+      <c r="C4" s="260">
         <f>COUNTA(question[[#All],[Q ID]])-1</f>
         <v>237</v>
       </c>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249"/>
+      <c r="D4" s="261"/>
+      <c r="E4" s="262"/>
       <c r="F4" s="7"/>
       <c r="H4" s="4"/>
       <c r="I4" s="6"/>
@@ -16579,7 +16579,7 @@
       <c r="C29" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="257" t="s">
+      <c r="D29" s="146" t="s">
         <v>278</v>
       </c>
       <c r="E29" s="121" t="s">
@@ -16608,7 +16608,7 @@
       <c r="C30" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="257" t="s">
+      <c r="D30" s="146" t="s">
         <v>278</v>
       </c>
       <c r="E30" s="121" t="s">
@@ -16637,7 +16637,7 @@
       <c r="C31" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="257" t="s">
+      <c r="D31" s="146" t="s">
         <v>278</v>
       </c>
       <c r="E31" s="121" t="s">
@@ -16666,7 +16666,7 @@
       <c r="C32" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="257" t="s">
+      <c r="D32" s="146" t="s">
         <v>278</v>
       </c>
       <c r="E32" s="121" t="s">
@@ -16695,7 +16695,7 @@
       <c r="C33" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="258" t="s">
+      <c r="D33" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E33" s="121" t="s">
@@ -16724,7 +16724,7 @@
       <c r="C34" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="258" t="s">
+      <c r="D34" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E34" s="122" t="s">
@@ -16753,7 +16753,7 @@
       <c r="C35" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="258" t="s">
+      <c r="D35" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E35" s="121" t="s">
@@ -16782,7 +16782,7 @@
       <c r="C36" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="258" t="s">
+      <c r="D36" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E36" s="123" t="s">
@@ -16811,7 +16811,7 @@
       <c r="C37" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="258" t="s">
+      <c r="D37" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E37" s="123" t="s">
@@ -16840,7 +16840,7 @@
       <c r="C38" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="258" t="s">
+      <c r="D38" s="147" t="s">
         <v>278</v>
       </c>
       <c r="E38" s="123" t="s">
@@ -16869,7 +16869,7 @@
       <c r="C39" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="257" t="s">
+      <c r="D39" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E39" s="121" t="s">
@@ -16898,7 +16898,7 @@
       <c r="C40" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="257" t="s">
+      <c r="D40" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E40" s="121" t="s">
@@ -16927,7 +16927,7 @@
       <c r="C41" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="257" t="s">
+      <c r="D41" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E41" s="121" t="s">
@@ -16956,7 +16956,7 @@
       <c r="C42" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="257" t="s">
+      <c r="D42" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E42" s="121" t="s">
@@ -16985,7 +16985,7 @@
       <c r="C43" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="257" t="s">
+      <c r="D43" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E43" s="121" t="s">
@@ -17014,7 +17014,7 @@
       <c r="C44" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="257" t="s">
+      <c r="D44" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E44" s="122" t="s">
@@ -17043,7 +17043,7 @@
       <c r="C45" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="257" t="s">
+      <c r="D45" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E45" s="123" t="s">
@@ -17072,7 +17072,7 @@
       <c r="C46" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="257" t="s">
+      <c r="D46" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E46" s="123" t="s">
@@ -17101,7 +17101,7 @@
       <c r="C47" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="257" t="s">
+      <c r="D47" s="146" t="s">
         <v>279</v>
       </c>
       <c r="E47" s="123" t="s">
@@ -17130,7 +17130,7 @@
       <c r="C48" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="257" t="s">
+      <c r="D48" s="146" t="s">
         <v>280</v>
       </c>
       <c r="E48" s="121" t="s">
@@ -17159,7 +17159,7 @@
       <c r="C49" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="257" t="s">
+      <c r="D49" s="146" t="s">
         <v>280</v>
       </c>
       <c r="E49" s="121" t="s">
@@ -17188,7 +17188,7 @@
       <c r="C50" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="257" t="s">
+      <c r="D50" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E50" s="121" t="s">
@@ -17217,7 +17217,7 @@
       <c r="C51" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D51" s="257" t="s">
+      <c r="D51" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E51" s="121" t="s">
@@ -17246,7 +17246,7 @@
       <c r="C52" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="257" t="s">
+      <c r="D52" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E52" s="123" t="s">
@@ -17275,7 +17275,7 @@
       <c r="C53" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="257" t="s">
+      <c r="D53" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E53" s="123" t="s">
@@ -17304,7 +17304,7 @@
       <c r="C54" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="257" t="s">
+      <c r="D54" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E54" s="121" t="s">
@@ -17333,7 +17333,7 @@
       <c r="C55" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D55" s="257" t="s">
+      <c r="D55" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E55" s="122" t="s">
@@ -17362,7 +17362,7 @@
       <c r="C56" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="257" t="s">
+      <c r="D56" s="146" t="s">
         <v>281</v>
       </c>
       <c r="E56" s="121" t="s">
@@ -17391,7 +17391,7 @@
       <c r="C57" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D57" s="257" t="s">
+      <c r="D57" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E57" s="121" t="s">
@@ -17420,7 +17420,7 @@
       <c r="C58" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="257" t="s">
+      <c r="D58" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E58" s="121" t="s">
@@ -17449,7 +17449,7 @@
       <c r="C59" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D59" s="257" t="s">
+      <c r="D59" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E59" s="121" t="s">
@@ -17478,7 +17478,7 @@
       <c r="C60" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D60" s="257" t="s">
+      <c r="D60" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E60" s="123" t="s">
@@ -17507,7 +17507,7 @@
       <c r="C61" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D61" s="257" t="s">
+      <c r="D61" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E61" s="123" t="s">
@@ -17536,7 +17536,7 @@
       <c r="C62" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="257" t="s">
+      <c r="D62" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E62" s="121" t="s">
@@ -17565,7 +17565,7 @@
       <c r="C63" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="257" t="s">
+      <c r="D63" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E63" s="122" t="s">
@@ -17594,7 +17594,7 @@
       <c r="C64" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="257" t="s">
+      <c r="D64" s="146" t="s">
         <v>282</v>
       </c>
       <c r="E64" s="121" t="s">
@@ -17623,7 +17623,7 @@
       <c r="C65" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="257" t="s">
+      <c r="D65" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E65" s="121" t="s">
@@ -17652,7 +17652,7 @@
       <c r="C66" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="257" t="s">
+      <c r="D66" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E66" s="121" t="s">
@@ -17681,7 +17681,7 @@
       <c r="C67" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="257" t="s">
+      <c r="D67" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E67" s="121" t="s">
@@ -17710,7 +17710,7 @@
       <c r="C68" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="257" t="s">
+      <c r="D68" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E68" s="123" t="s">
@@ -17739,7 +17739,7 @@
       <c r="C69" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D69" s="257" t="s">
+      <c r="D69" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E69" s="123" t="s">
@@ -17768,7 +17768,7 @@
       <c r="C70" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="257" t="s">
+      <c r="D70" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E70" s="121" t="s">
@@ -17797,7 +17797,7 @@
       <c r="C71" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D71" s="257" t="s">
+      <c r="D71" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E71" s="122" t="s">
@@ -17826,7 +17826,7 @@
       <c r="C72" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D72" s="257" t="s">
+      <c r="D72" s="146" t="s">
         <v>283</v>
       </c>
       <c r="E72" s="121" t="s">
@@ -19160,7 +19160,7 @@
       <c r="C118" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="D118" s="257" t="s">
+      <c r="D118" s="146" t="s">
         <v>287</v>
       </c>
       <c r="E118" s="121" t="s">
@@ -19189,8 +19189,8 @@
       <c r="C119" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D119" s="257"/>
-      <c r="E119" s="261" t="s">
+      <c r="D119" s="146"/>
+      <c r="E119" s="150" t="s">
         <v>440</v>
       </c>
       <c r="F119" s="5" t="s">
@@ -19216,8 +19216,8 @@
       <c r="C120" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D120" s="257"/>
-      <c r="E120" s="261" t="s">
+      <c r="D120" s="146"/>
+      <c r="E120" s="150" t="s">
         <v>441</v>
       </c>
       <c r="F120" s="5" t="s">
@@ -19243,10 +19243,10 @@
       <c r="C121" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D121" s="257" t="s">
+      <c r="D121" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="E121" s="261" t="s">
+      <c r="E121" s="150" t="s">
         <v>442</v>
       </c>
       <c r="F121" s="5" t="s">
@@ -19272,10 +19272,10 @@
       <c r="C122" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D122" s="257" t="s">
+      <c r="D122" s="146" t="s">
         <v>430</v>
       </c>
-      <c r="E122" s="261" t="s">
+      <c r="E122" s="150" t="s">
         <v>443</v>
       </c>
       <c r="F122" s="5" t="s">
@@ -19301,10 +19301,10 @@
       <c r="C123" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D123" s="257" t="s">
+      <c r="D123" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E123" s="261" t="s">
+      <c r="E123" s="150" t="s">
         <v>444</v>
       </c>
       <c r="F123" s="5" t="s">
@@ -19330,10 +19330,10 @@
       <c r="C124" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D124" s="257" t="s">
+      <c r="D124" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E124" s="261" t="s">
+      <c r="E124" s="150" t="s">
         <v>445</v>
       </c>
       <c r="F124" s="5" t="s">
@@ -19359,10 +19359,10 @@
       <c r="C125" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D125" s="257" t="s">
+      <c r="D125" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E125" s="261" t="s">
+      <c r="E125" s="150" t="s">
         <v>446</v>
       </c>
       <c r="F125" s="5" t="s">
@@ -19388,10 +19388,10 @@
       <c r="C126" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D126" s="257" t="s">
+      <c r="D126" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E126" s="261" t="s">
+      <c r="E126" s="150" t="s">
         <v>447</v>
       </c>
       <c r="F126" s="5" t="s">
@@ -19417,10 +19417,10 @@
       <c r="C127" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D127" s="257" t="s">
+      <c r="D127" s="146" t="s">
         <v>431</v>
       </c>
-      <c r="E127" s="261" t="s">
+      <c r="E127" s="150" t="s">
         <v>448</v>
       </c>
       <c r="F127" s="5" t="s">
@@ -19446,10 +19446,10 @@
       <c r="C128" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D128" s="257" t="s">
+      <c r="D128" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="E128" s="261" t="s">
+      <c r="E128" s="150" t="s">
         <v>444</v>
       </c>
       <c r="F128" s="5" t="s">
@@ -19475,10 +19475,10 @@
       <c r="C129" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D129" s="257" t="s">
+      <c r="D129" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="E129" s="261" t="s">
+      <c r="E129" s="150" t="s">
         <v>445</v>
       </c>
       <c r="F129" s="5" t="s">
@@ -19504,10 +19504,10 @@
       <c r="C130" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D130" s="257" t="s">
+      <c r="D130" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="E130" s="261" t="s">
+      <c r="E130" s="150" t="s">
         <v>446</v>
       </c>
       <c r="F130" s="5" t="s">
@@ -19533,10 +19533,10 @@
       <c r="C131" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D131" s="257" t="s">
+      <c r="D131" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="E131" s="261" t="s">
+      <c r="E131" s="150" t="s">
         <v>447</v>
       </c>
       <c r="F131" s="5" t="s">
@@ -19562,10 +19562,10 @@
       <c r="C132" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D132" s="257" t="s">
+      <c r="D132" s="146" t="s">
         <v>432</v>
       </c>
-      <c r="E132" s="261" t="s">
+      <c r="E132" s="150" t="s">
         <v>448</v>
       </c>
       <c r="F132" s="5" t="s">
@@ -19591,10 +19591,10 @@
       <c r="C133" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D133" s="257" t="s">
+      <c r="D133" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E133" s="261" t="s">
+      <c r="E133" s="150" t="s">
         <v>444</v>
       </c>
       <c r="F133" s="5" t="s">
@@ -19620,10 +19620,10 @@
       <c r="C134" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D134" s="257" t="s">
+      <c r="D134" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E134" s="261" t="s">
+      <c r="E134" s="150" t="s">
         <v>445</v>
       </c>
       <c r="F134" s="5" t="s">
@@ -19649,10 +19649,10 @@
       <c r="C135" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D135" s="257" t="s">
+      <c r="D135" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E135" s="261" t="s">
+      <c r="E135" s="150" t="s">
         <v>446</v>
       </c>
       <c r="F135" s="5" t="s">
@@ -19678,10 +19678,10 @@
       <c r="C136" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D136" s="257" t="s">
+      <c r="D136" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E136" s="261" t="s">
+      <c r="E136" s="150" t="s">
         <v>447</v>
       </c>
       <c r="F136" s="5" t="s">
@@ -19707,10 +19707,10 @@
       <c r="C137" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D137" s="257" t="s">
+      <c r="D137" s="146" t="s">
         <v>433</v>
       </c>
-      <c r="E137" s="261" t="s">
+      <c r="E137" s="150" t="s">
         <v>448</v>
       </c>
       <c r="F137" s="5" t="s">
@@ -19736,10 +19736,10 @@
       <c r="C138" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D138" s="257" t="s">
+      <c r="D138" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E138" s="261" t="s">
+      <c r="E138" s="150" t="s">
         <v>449</v>
       </c>
       <c r="F138" s="5" t="s">
@@ -19765,10 +19765,10 @@
       <c r="C139" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D139" s="257" t="s">
+      <c r="D139" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="261" t="s">
+      <c r="E139" s="150" t="s">
         <v>450</v>
       </c>
       <c r="F139" s="5" t="s">
@@ -19794,10 +19794,10 @@
       <c r="C140" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D140" s="257" t="s">
+      <c r="D140" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E140" s="261" t="s">
+      <c r="E140" s="150" t="s">
         <v>451</v>
       </c>
       <c r="F140" s="5" t="s">
@@ -19823,10 +19823,10 @@
       <c r="C141" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D141" s="257" t="s">
+      <c r="D141" s="146" t="s">
         <v>434</v>
       </c>
-      <c r="E141" s="261" t="s">
+      <c r="E141" s="150" t="s">
         <v>452</v>
       </c>
       <c r="F141" s="5" t="s">
@@ -19852,10 +19852,10 @@
       <c r="C142" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D142" s="257" t="s">
+      <c r="D142" s="146" t="s">
         <v>434</v>
       </c>
-      <c r="E142" s="261" t="s">
+      <c r="E142" s="150" t="s">
         <v>453</v>
       </c>
       <c r="F142" s="5" t="s">
@@ -19881,10 +19881,10 @@
       <c r="C143" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D143" s="257" t="s">
+      <c r="D143" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E143" s="261" t="s">
+      <c r="E143" s="150" t="s">
         <v>454</v>
       </c>
       <c r="F143" s="5" t="s">
@@ -19910,10 +19910,10 @@
       <c r="C144" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D144" s="257" t="s">
+      <c r="D144" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E144" s="261" t="s">
+      <c r="E144" s="150" t="s">
         <v>455</v>
       </c>
       <c r="F144" s="5" t="s">
@@ -19939,10 +19939,10 @@
       <c r="C145" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D145" s="257" t="s">
+      <c r="D145" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E145" s="261" t="s">
+      <c r="E145" s="150" t="s">
         <v>456</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -19968,10 +19968,10 @@
       <c r="C146" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D146" s="257" t="s">
+      <c r="D146" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E146" s="261" t="s">
+      <c r="E146" s="150" t="s">
         <v>457</v>
       </c>
       <c r="F146" s="5" t="s">
@@ -19997,10 +19997,10 @@
       <c r="C147" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D147" s="257" t="s">
+      <c r="D147" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E147" s="261" t="s">
+      <c r="E147" s="150" t="s">
         <v>458</v>
       </c>
       <c r="F147" s="5" t="s">
@@ -20026,10 +20026,10 @@
       <c r="C148" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D148" s="257" t="s">
+      <c r="D148" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E148" s="261" t="s">
+      <c r="E148" s="150" t="s">
         <v>459</v>
       </c>
       <c r="F148" s="5" t="s">
@@ -20055,10 +20055,10 @@
       <c r="C149" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D149" s="257" t="s">
+      <c r="D149" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E149" s="261" t="s">
+      <c r="E149" s="150" t="s">
         <v>460</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -20084,10 +20084,10 @@
       <c r="C150" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D150" s="257" t="s">
+      <c r="D150" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E150" s="261" t="s">
+      <c r="E150" s="150" t="s">
         <v>461</v>
       </c>
       <c r="F150" s="5" t="s">
@@ -20113,10 +20113,10 @@
       <c r="C151" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D151" s="257" t="s">
+      <c r="D151" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E151" s="261" t="s">
+      <c r="E151" s="150" t="s">
         <v>462</v>
       </c>
       <c r="F151" s="5" t="s">
@@ -20142,10 +20142,10 @@
       <c r="C152" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D152" s="257" t="s">
+      <c r="D152" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E152" s="261" t="s">
+      <c r="E152" s="150" t="s">
         <v>463</v>
       </c>
       <c r="F152" s="5" t="s">
@@ -20171,10 +20171,10 @@
       <c r="C153" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D153" s="257" t="s">
+      <c r="D153" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E153" s="261" t="s">
+      <c r="E153" s="150" t="s">
         <v>464</v>
       </c>
       <c r="F153" s="5" t="s">
@@ -20200,10 +20200,10 @@
       <c r="C154" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D154" s="257" t="s">
+      <c r="D154" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E154" s="261" t="s">
+      <c r="E154" s="150" t="s">
         <v>465</v>
       </c>
       <c r="F154" s="5" t="s">
@@ -20229,10 +20229,10 @@
       <c r="C155" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D155" s="257" t="s">
+      <c r="D155" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E155" s="261" t="s">
+      <c r="E155" s="150" t="s">
         <v>466</v>
       </c>
       <c r="F155" s="5" t="s">
@@ -20258,10 +20258,10 @@
       <c r="C156" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D156" s="257" t="s">
+      <c r="D156" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E156" s="261" t="s">
+      <c r="E156" s="150" t="s">
         <v>467</v>
       </c>
       <c r="F156" s="5" t="s">
@@ -20287,10 +20287,10 @@
       <c r="C157" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D157" s="257" t="s">
+      <c r="D157" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="E157" s="261" t="s">
+      <c r="E157" s="150" t="s">
         <v>468</v>
       </c>
       <c r="F157" s="5" t="s">
@@ -20316,10 +20316,10 @@
       <c r="C158" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D158" s="257" t="s">
+      <c r="D158" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E158" s="261" t="s">
+      <c r="E158" s="150" t="s">
         <v>211</v>
       </c>
       <c r="F158" s="5" t="s">
@@ -20345,10 +20345,10 @@
       <c r="C159" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D159" s="257" t="s">
+      <c r="D159" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E159" s="259" t="s">
+      <c r="E159" s="148" t="s">
         <v>212</v>
       </c>
       <c r="F159" s="5" t="s">
@@ -20374,10 +20374,10 @@
       <c r="C160" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D160" s="257" t="s">
+      <c r="D160" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E160" s="259" t="s">
+      <c r="E160" s="148" t="s">
         <v>469</v>
       </c>
       <c r="F160" s="5" t="s">
@@ -20403,10 +20403,10 @@
       <c r="C161" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D161" s="257" t="s">
+      <c r="D161" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E161" s="259" t="s">
+      <c r="E161" s="148" t="s">
         <v>470</v>
       </c>
       <c r="F161" s="5" t="s">
@@ -20432,10 +20432,10 @@
       <c r="C162" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D162" s="257" t="s">
+      <c r="D162" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E162" s="259" t="s">
+      <c r="E162" s="148" t="s">
         <v>471</v>
       </c>
       <c r="F162" s="5" t="s">
@@ -20461,10 +20461,10 @@
       <c r="C163" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D163" s="257" t="s">
+      <c r="D163" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E163" s="260" t="s">
+      <c r="E163" s="149" t="s">
         <v>472</v>
       </c>
       <c r="F163" s="5" t="s">
@@ -20490,10 +20490,10 @@
       <c r="C164" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D164" s="257" t="s">
+      <c r="D164" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="E164" s="261" t="s">
+      <c r="E164" s="150" t="s">
         <v>217</v>
       </c>
       <c r="F164" s="5" t="s">
@@ -20519,7 +20519,7 @@
       <c r="C165" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D165" s="257" t="s">
+      <c r="D165" s="146" t="s">
         <v>436</v>
       </c>
       <c r="E165" s="123" t="s">
@@ -20548,7 +20548,7 @@
       <c r="C166" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D166" s="257" t="s">
+      <c r="D166" s="146" t="s">
         <v>436</v>
       </c>
       <c r="E166" s="123" t="s">
@@ -20577,7 +20577,7 @@
       <c r="C167" s="135" t="s">
         <v>429</v>
       </c>
-      <c r="D167" s="257" t="s">
+      <c r="D167" s="146" t="s">
         <v>436</v>
       </c>
       <c r="E167" s="123" t="s">
@@ -20667,7 +20667,7 @@
       <c r="D170" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E170" s="261" t="s">
+      <c r="E170" s="150" t="s">
         <v>445</v>
       </c>
       <c r="F170" s="5" t="s">
@@ -20696,7 +20696,7 @@
       <c r="D171" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E171" s="261" t="s">
+      <c r="E171" s="150" t="s">
         <v>446</v>
       </c>
       <c r="F171" s="5" t="s">
@@ -20725,7 +20725,7 @@
       <c r="D172" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E172" s="261" t="s">
+      <c r="E172" s="150" t="s">
         <v>447</v>
       </c>
       <c r="F172" s="5" t="s">
@@ -20754,7 +20754,7 @@
       <c r="D173" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E173" s="261" t="s">
+      <c r="E173" s="150" t="s">
         <v>211</v>
       </c>
       <c r="F173" s="5" t="s">
@@ -20783,11 +20783,11 @@
       <c r="D174" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E174" s="259" t="s">
+      <c r="E174" s="148" t="s">
         <v>212</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G174" s="136" t="s">
         <v>15</v>
@@ -20812,7 +20812,7 @@
       <c r="D175" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E175" s="259" t="s">
+      <c r="E175" s="148" t="s">
         <v>477</v>
       </c>
       <c r="F175" s="5" t="s">
@@ -20841,7 +20841,7 @@
       <c r="D176" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E176" s="259" t="s">
+      <c r="E176" s="148" t="s">
         <v>478</v>
       </c>
       <c r="F176" s="5" t="s">
@@ -20870,7 +20870,7 @@
       <c r="D177" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E177" s="259" t="s">
+      <c r="E177" s="148" t="s">
         <v>479</v>
       </c>
       <c r="F177" s="5" t="s">
@@ -20899,7 +20899,7 @@
       <c r="D178" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E178" s="260" t="s">
+      <c r="E178" s="149" t="s">
         <v>480</v>
       </c>
       <c r="F178" s="5" t="s">
@@ -20928,7 +20928,7 @@
       <c r="D179" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E179" s="261" t="s">
+      <c r="E179" s="150" t="s">
         <v>217</v>
       </c>
       <c r="F179" s="5" t="s">
@@ -21046,7 +21046,7 @@
         <v>483</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G183" s="136" t="s">
         <v>15</v>
@@ -21065,7 +21065,7 @@
       <c r="B184" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="C184" s="251" t="s">
+      <c r="C184" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D184" s="5" t="s">
@@ -21083,7 +21083,7 @@
       <c r="H184" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I184" s="252" t="s">
+      <c r="I184" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="B185" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="C185" s="251" t="s">
+      <c r="C185" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D185" s="5" t="s">
@@ -21112,7 +21112,7 @@
       <c r="H185" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="I185" s="252" t="s">
+      <c r="I185" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21123,7 +21123,7 @@
       <c r="B186" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C186" s="251" t="s">
+      <c r="C186" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D186" s="5" t="s">
@@ -21141,7 +21141,7 @@
       <c r="H186" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I186" s="252" t="s">
+      <c r="I186" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21152,13 +21152,13 @@
       <c r="B187" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="C187" s="251" t="s">
+      <c r="C187" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E187" s="250" t="s">
+      <c r="E187" s="139" t="s">
         <v>487</v>
       </c>
       <c r="F187" s="5" t="s">
@@ -21170,7 +21170,7 @@
       <c r="H187" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I187" s="252" t="s">
+      <c r="I187" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21181,13 +21181,13 @@
       <c r="B188" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="C188" s="251" t="s">
+      <c r="C188" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E188" s="250" t="s">
+      <c r="E188" s="139" t="s">
         <v>488</v>
       </c>
       <c r="F188" s="5" t="s">
@@ -21199,7 +21199,7 @@
       <c r="H188" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I188" s="252" t="s">
+      <c r="I188" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21210,13 +21210,13 @@
       <c r="B189" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C189" s="251" t="s">
+      <c r="C189" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E189" s="250" t="s">
+      <c r="E189" s="139" t="s">
         <v>489</v>
       </c>
       <c r="F189" s="5" t="s">
@@ -21228,7 +21228,7 @@
       <c r="H189" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I189" s="252" t="s">
+      <c r="I189" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21239,13 +21239,13 @@
       <c r="B190" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="C190" s="251" t="s">
+      <c r="C190" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E190" s="250" t="s">
+      <c r="E190" s="139" t="s">
         <v>490</v>
       </c>
       <c r="F190" s="5" t="s">
@@ -21257,7 +21257,7 @@
       <c r="H190" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I190" s="252" t="s">
+      <c r="I190" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21268,13 +21268,13 @@
       <c r="B191" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C191" s="251" t="s">
+      <c r="C191" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E191" s="250" t="s">
+      <c r="E191" s="139" t="s">
         <v>491</v>
       </c>
       <c r="F191" s="5" t="s">
@@ -21286,7 +21286,7 @@
       <c r="H191" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I191" s="252" t="s">
+      <c r="I191" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21297,7 +21297,7 @@
       <c r="B192" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="C192" s="251" t="s">
+      <c r="C192" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D192" s="5" t="s">
@@ -21315,7 +21315,7 @@
       <c r="H192" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I192" s="252" t="s">
+      <c r="I192" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21326,7 +21326,7 @@
       <c r="B193" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="251" t="s">
+      <c r="C193" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D193" s="5" t="s">
@@ -21344,7 +21344,7 @@
       <c r="H193" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="I193" s="252" t="s">
+      <c r="I193" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21355,7 +21355,7 @@
       <c r="B194" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="C194" s="251" t="s">
+      <c r="C194" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D194" s="5" t="s">
@@ -21373,7 +21373,7 @@
       <c r="H194" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I194" s="252" t="s">
+      <c r="I194" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       <c r="B195" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C195" s="251" t="s">
+      <c r="C195" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D195" s="5" t="s">
@@ -21402,7 +21402,7 @@
       <c r="H195" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I195" s="252" t="s">
+      <c r="I195" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21413,7 +21413,7 @@
       <c r="B196" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="C196" s="251" t="s">
+      <c r="C196" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D196" s="5" t="s">
@@ -21431,7 +21431,7 @@
       <c r="H196" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I196" s="252" t="s">
+      <c r="I196" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21442,7 +21442,7 @@
       <c r="B197" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="C197" s="251" t="s">
+      <c r="C197" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D197" s="5" t="s">
@@ -21460,7 +21460,7 @@
       <c r="H197" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="I197" s="252" t="s">
+      <c r="I197" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21471,7 +21471,7 @@
       <c r="B198" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C198" s="251" t="s">
+      <c r="C198" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D198" s="5" t="s">
@@ -21489,7 +21489,7 @@
       <c r="H198" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I198" s="252" t="s">
+      <c r="I198" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21500,7 +21500,7 @@
       <c r="B199" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="C199" s="251" t="s">
+      <c r="C199" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D199" s="5" t="s">
@@ -21518,7 +21518,7 @@
       <c r="H199" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I199" s="252" t="s">
+      <c r="I199" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21529,7 +21529,7 @@
       <c r="B200" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="C200" s="251" t="s">
+      <c r="C200" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D200" s="5" t="s">
@@ -21547,7 +21547,7 @@
       <c r="H200" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I200" s="252" t="s">
+      <c r="I200" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21558,7 +21558,7 @@
       <c r="B201" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C201" s="251" t="s">
+      <c r="C201" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D201" s="5" t="s">
@@ -21576,7 +21576,7 @@
       <c r="H201" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I201" s="252" t="s">
+      <c r="I201" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       <c r="B202" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="C202" s="251" t="s">
+      <c r="C202" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D202" s="5" t="s">
@@ -21605,7 +21605,7 @@
       <c r="H202" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I202" s="252" t="s">
+      <c r="I202" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21616,7 +21616,7 @@
       <c r="B203" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="C203" s="251" t="s">
+      <c r="C203" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D203" s="5" t="s">
@@ -21634,7 +21634,7 @@
       <c r="H203" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I203" s="252" t="s">
+      <c r="I203" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21645,7 +21645,7 @@
       <c r="B204" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C204" s="251" t="s">
+      <c r="C204" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D204" s="9" t="s">
@@ -21663,7 +21663,7 @@
       <c r="H204" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I204" s="252" t="s">
+      <c r="I204" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21674,7 +21674,7 @@
       <c r="B205" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C205" s="251" t="s">
+      <c r="C205" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D205" s="9" t="s">
@@ -21692,7 +21692,7 @@
       <c r="H205" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I205" s="252" t="s">
+      <c r="I205" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21703,7 +21703,7 @@
       <c r="B206" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="C206" s="251" t="s">
+      <c r="C206" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D206" s="9" t="s">
@@ -21721,7 +21721,7 @@
       <c r="H206" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I206" s="252" t="s">
+      <c r="I206" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21732,7 +21732,7 @@
       <c r="B207" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="C207" s="251" t="s">
+      <c r="C207" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D207" s="9" t="s">
@@ -21750,7 +21750,7 @@
       <c r="H207" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I207" s="252" t="s">
+      <c r="I207" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21761,7 +21761,7 @@
       <c r="B208" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="C208" s="251" t="s">
+      <c r="C208" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D208" s="9" t="s">
@@ -21779,7 +21779,7 @@
       <c r="H208" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I208" s="252" t="s">
+      <c r="I208" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21790,7 +21790,7 @@
       <c r="B209" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="C209" s="251" t="s">
+      <c r="C209" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D209" s="9" t="s">
@@ -21808,7 +21808,7 @@
       <c r="H209" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I209" s="252" t="s">
+      <c r="I209" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21819,7 +21819,7 @@
       <c r="B210" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C210" s="251" t="s">
+      <c r="C210" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D210" s="9" t="s">
@@ -21837,7 +21837,7 @@
       <c r="H210" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="I210" s="252" t="s">
+      <c r="I210" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21848,7 +21848,7 @@
       <c r="B211" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="C211" s="251" t="s">
+      <c r="C211" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D211" s="5" t="s">
@@ -21866,7 +21866,7 @@
       <c r="H211" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I211" s="252" t="s">
+      <c r="I211" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="B212" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="C212" s="251" t="s">
+      <c r="C212" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D212" s="5" t="s">
@@ -21895,7 +21895,7 @@
       <c r="H212" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I212" s="252" t="s">
+      <c r="I212" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21906,7 +21906,7 @@
       <c r="B213" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="C213" s="251" t="s">
+      <c r="C213" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D213" s="5" t="s">
@@ -21924,7 +21924,7 @@
       <c r="H213" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I213" s="252" t="s">
+      <c r="I213" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21935,7 +21935,7 @@
       <c r="B214" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="C214" s="251" t="s">
+      <c r="C214" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D214" s="5" t="s">
@@ -21953,7 +21953,7 @@
       <c r="H214" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I214" s="252" t="s">
+      <c r="I214" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21964,7 +21964,7 @@
       <c r="B215" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="C215" s="251" t="s">
+      <c r="C215" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D215" s="5" t="s">
@@ -21982,7 +21982,7 @@
       <c r="H215" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I215" s="252" t="s">
+      <c r="I215" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21993,7 +21993,7 @@
       <c r="B216" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C216" s="251" t="s">
+      <c r="C216" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D216" s="5" t="s">
@@ -22011,7 +22011,7 @@
       <c r="H216" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I216" s="252" t="s">
+      <c r="I216" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22022,7 +22022,7 @@
       <c r="B217" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="C217" s="251" t="s">
+      <c r="C217" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D217" s="5" t="s">
@@ -22040,7 +22040,7 @@
       <c r="H217" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I217" s="252" t="s">
+      <c r="I217" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22051,7 +22051,7 @@
       <c r="B218" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="C218" s="251" t="s">
+      <c r="C218" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -22069,7 +22069,7 @@
       <c r="H218" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="I218" s="252" t="s">
+      <c r="I218" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       <c r="B219" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="C219" s="251" t="s">
+      <c r="C219" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D219" s="5" t="s">
@@ -22098,7 +22098,7 @@
       <c r="H219" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="252" t="s">
+      <c r="I219" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22109,7 +22109,7 @@
       <c r="B220" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="C220" s="251" t="s">
+      <c r="C220" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -22127,7 +22127,7 @@
       <c r="H220" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I220" s="252" t="s">
+      <c r="I220" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22138,7 +22138,7 @@
       <c r="B221" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="C221" s="251" t="s">
+      <c r="C221" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -22156,7 +22156,7 @@
       <c r="H221" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I221" s="252" t="s">
+      <c r="I221" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22167,7 +22167,7 @@
       <c r="B222" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="C222" s="251" t="s">
+      <c r="C222" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D222" s="5" t="s">
@@ -22185,7 +22185,7 @@
       <c r="H222" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I222" s="252" t="s">
+      <c r="I222" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22196,7 +22196,7 @@
       <c r="B223" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="C223" s="251" t="s">
+      <c r="C223" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D223" s="5" t="s">
@@ -22214,7 +22214,7 @@
       <c r="H223" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I223" s="252" t="s">
+      <c r="I223" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22225,7 +22225,7 @@
       <c r="B224" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="C224" s="251" t="s">
+      <c r="C224" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -22243,7 +22243,7 @@
       <c r="H224" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I224" s="252" t="s">
+      <c r="I224" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22254,7 +22254,7 @@
       <c r="B225" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="C225" s="251" t="s">
+      <c r="C225" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -22272,7 +22272,7 @@
       <c r="H225" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I225" s="252" t="s">
+      <c r="I225" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22283,7 +22283,7 @@
       <c r="B226" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="C226" s="251" t="s">
+      <c r="C226" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -22301,7 +22301,7 @@
       <c r="H226" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I226" s="252" t="s">
+      <c r="I226" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22312,7 +22312,7 @@
       <c r="B227" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="C227" s="251" t="s">
+      <c r="C227" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -22330,7 +22330,7 @@
       <c r="H227" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I227" s="252" t="s">
+      <c r="I227" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22341,7 +22341,7 @@
       <c r="B228" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="C228" s="251" t="s">
+      <c r="C228" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D228" s="5" t="s">
@@ -22359,7 +22359,7 @@
       <c r="H228" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I228" s="252" t="s">
+      <c r="I228" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22370,7 +22370,7 @@
       <c r="B229" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="C229" s="251" t="s">
+      <c r="C229" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D229" s="5" t="s">
@@ -22388,7 +22388,7 @@
       <c r="H229" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I229" s="252" t="s">
+      <c r="I229" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22399,7 +22399,7 @@
       <c r="B230" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="C230" s="251" t="s">
+      <c r="C230" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D230" s="5" t="s">
@@ -22417,7 +22417,7 @@
       <c r="H230" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I230" s="252" t="s">
+      <c r="I230" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22428,7 +22428,7 @@
       <c r="B231" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="C231" s="251" t="s">
+      <c r="C231" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D231" s="5" t="s">
@@ -22446,7 +22446,7 @@
       <c r="H231" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I231" s="252" t="s">
+      <c r="I231" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22457,7 +22457,7 @@
       <c r="B232" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="C232" s="251" t="s">
+      <c r="C232" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -22475,7 +22475,7 @@
       <c r="H232" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="I232" s="252" t="s">
+      <c r="I232" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22486,7 +22486,7 @@
       <c r="B233" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="C233" s="251" t="s">
+      <c r="C233" s="140" t="s">
         <v>524</v>
       </c>
       <c r="D233" s="5" t="s">
@@ -22504,7 +22504,7 @@
       <c r="H233" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I233" s="252" t="s">
+      <c r="I233" s="141" t="s">
         <v>575</v>
       </c>
     </row>
@@ -22515,11 +22515,11 @@
       <c r="B234" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C234" s="256" t="s">
+      <c r="C234" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D234" s="20"/>
-      <c r="E234" s="253" t="s">
+      <c r="E234" s="142" t="s">
         <v>576</v>
       </c>
       <c r="F234" s="20" t="s">
@@ -22531,7 +22531,7 @@
       <c r="H234" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I234" s="255" t="s">
+      <c r="I234" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22542,11 +22542,11 @@
       <c r="B235" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="C235" s="256" t="s">
+      <c r="C235" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D235" s="20"/>
-      <c r="E235" s="254" t="s">
+      <c r="E235" s="143" t="s">
         <v>577</v>
       </c>
       <c r="F235" s="20" t="s">
@@ -22558,7 +22558,7 @@
       <c r="H235" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I235" s="255" t="s">
+      <c r="I235" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22569,11 +22569,11 @@
       <c r="B236" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="C236" s="256" t="s">
+      <c r="C236" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D236" s="20"/>
-      <c r="E236" s="254" t="s">
+      <c r="E236" s="143" t="s">
         <v>578</v>
       </c>
       <c r="F236" s="20" t="s">
@@ -22585,7 +22585,7 @@
       <c r="H236" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I236" s="255" t="s">
+      <c r="I236" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22596,11 +22596,11 @@
       <c r="B237" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="C237" s="256" t="s">
+      <c r="C237" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D237" s="20"/>
-      <c r="E237" s="254" t="s">
+      <c r="E237" s="143" t="s">
         <v>579</v>
       </c>
       <c r="F237" s="20" t="s">
@@ -22612,7 +22612,7 @@
       <c r="H237" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I237" s="255" t="s">
+      <c r="I237" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22623,11 +22623,11 @@
       <c r="B238" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="C238" s="256" t="s">
+      <c r="C238" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D238" s="20"/>
-      <c r="E238" s="254" t="s">
+      <c r="E238" s="143" t="s">
         <v>580</v>
       </c>
       <c r="F238" s="20" t="s">
@@ -22639,7 +22639,7 @@
       <c r="H238" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I238" s="255" t="s">
+      <c r="I238" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22650,11 +22650,11 @@
       <c r="B239" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="C239" s="256" t="s">
+      <c r="C239" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D239" s="20"/>
-      <c r="E239" s="254" t="s">
+      <c r="E239" s="143" t="s">
         <v>581</v>
       </c>
       <c r="F239" s="20" t="s">
@@ -22666,7 +22666,7 @@
       <c r="H239" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I239" s="255" t="s">
+      <c r="I239" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22677,15 +22677,15 @@
       <c r="B240" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="C240" s="256" t="s">
+      <c r="C240" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D240" s="20"/>
-      <c r="E240" s="254" t="s">
+      <c r="E240" s="143" t="s">
         <v>582</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G240" s="22" t="s">
         <v>15</v>
@@ -22693,7 +22693,7 @@
       <c r="H240" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I240" s="255" t="s">
+      <c r="I240" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22704,11 +22704,11 @@
       <c r="B241" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="C241" s="256" t="s">
+      <c r="C241" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D241" s="20"/>
-      <c r="E241" s="262" t="s">
+      <c r="E241" s="151" t="s">
         <v>583</v>
       </c>
       <c r="F241" s="20" t="s">
@@ -22720,7 +22720,7 @@
       <c r="H241" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I241" s="255" t="s">
+      <c r="I241" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22731,11 +22731,11 @@
       <c r="B242" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="C242" s="256" t="s">
+      <c r="C242" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D242" s="20"/>
-      <c r="E242" s="262" t="s">
+      <c r="E242" s="151" t="s">
         <v>584</v>
       </c>
       <c r="F242" s="20" t="s">
@@ -22747,7 +22747,7 @@
       <c r="H242" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I242" s="255" t="s">
+      <c r="I242" s="144" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22758,11 +22758,11 @@
       <c r="B243" s="18" t="s">
         <v>597</v>
       </c>
-      <c r="C243" s="256" t="s">
+      <c r="C243" s="145" t="s">
         <v>587</v>
       </c>
       <c r="D243" s="20"/>
-      <c r="E243" s="262" t="s">
+      <c r="E243" s="151" t="s">
         <v>585</v>
       </c>
       <c r="F243" s="20" t="s">
@@ -22774,7 +22774,7 @@
       <c r="H243" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I243" s="255" t="s">
+      <c r="I243" s="144" t="s">
         <v>586</v>
       </c>
     </row>
